--- a/Data/Commodore 64 Breadbin/250407/Data C64 Breadbin 250407.xlsx
+++ b/Data/Commodore 64 Breadbin/250407/Data C64 Breadbin 250407.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64 Breadbin\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBDD9C5-3BED-4413-968A-EAEF8D60F2F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C426C4FD-0319-4ABB-B53D-F8AD5A7A53D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="420">
   <si>
     <t>Name</t>
   </si>
@@ -699,9 +699,6 @@
     <t>CN6</t>
   </si>
   <si>
-    <t>44 pin</t>
-  </si>
-  <si>
     <t>Expansion port</t>
   </si>
   <si>
@@ -741,25 +738,6 @@
     <t>HEX inverter buffer</t>
   </si>
   <si>
-    <t>DRAM</t>
-  </si>
-  <si>
-    <t>Memory locations:
-$DC00-$DCFF</t>
-  </si>
-  <si>
-    <t>Memory locations:
-$DD00-$DDFF</t>
-  </si>
-  <si>
-    <t>Memory locations:
-$E000-$FFFF</t>
-  </si>
-  <si>
-    <t>Memory locatons:
-$D800-$DBFF</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -784,10 +762,6 @@
     <t>PLA</t>
   </si>
   <si>
-    <t>Memory locations:
-$D400-$D7FF</t>
-  </si>
-  <si>
     <t>Dual timer</t>
   </si>
   <si>
@@ -863,11 +837,6 @@
     <t>Pinout</t>
   </si>
   <si>
-    <t>The socket is not pin-compatible with the 2732 EPROM, so to use an EPROM you need to create an adapter.
-Memory locations:
-$D000-$DFFF</t>
-  </si>
-  <si>
     <t>https://myoldcomputer.nl/technical-info/datasheets/integrated-chip-pinout-and-datasheets/processors/6510-2/</t>
   </si>
   <si>
@@ -916,11 +885,6 @@
     <t>Datasheet for 2364</t>
   </si>
   <si>
-    <t>MOS 901226-01
-Memory locations:
-$A000-$BFFF</t>
-  </si>
-  <si>
     <t>Datasheet for 2332</t>
   </si>
   <si>
@@ -966,15 +930,6 @@
     <t>Datasheet for MC4044</t>
   </si>
   <si>
-    <t>4KByte x 8-bit</t>
-  </si>
-  <si>
-    <t>1KByte x 4-bit</t>
-  </si>
-  <si>
-    <t>64KByte x 1-bit</t>
-  </si>
-  <si>
     <t>Datasheet for 7812</t>
   </si>
   <si>
@@ -985,19 +940,6 @@
   </si>
   <si>
     <t>Board layout</t>
-  </si>
-  <si>
-    <t>6569 (PAL)
-6567 (NTSC)
-Pin meassurements:
-17: PAL = 0.98 MHz
-17: NTSC = 1.02 MHz
-21: PAL = 17.734472 MHz
-21: NTSC = 14.31818 MHz
-22: PAL = 7.88 MHz
-22: NTSC = 8.18 MHz
-Memory locations:
-$D000-$D3FF</t>
   </si>
   <si>
     <t>Basic ROM</t>
@@ -1339,6 +1281,60 @@
     <t>Electrolytic Axial</t>
   </si>
   <si>
+    <t>44 pin edge</t>
+  </si>
+  <si>
+    <t>Memory location:
+$DC00-$DCFF</t>
+  </si>
+  <si>
+    <t>Memory location:
+$DD00-$DDFF</t>
+  </si>
+  <si>
+    <t>MOS 901226-01
+Memory location:
+$A000-$BFFF</t>
+  </si>
+  <si>
+    <t>Memory location:
+$E000-$FFFF</t>
+  </si>
+  <si>
+    <t>The socket is not pin-compatible with the 2732 EPROM, so to use an EPROM you need to create an adapter.
+Memory location:
+$D000-$DFFF</t>
+  </si>
+  <si>
+    <t>Memory locaton:
+$D800-$DBFF</t>
+  </si>
+  <si>
+    <t>Memory location:
+$D400-$D7FF</t>
+  </si>
+  <si>
+    <t>PET/VIC-20/C64 Port Pinouts</t>
+  </si>
+  <si>
+    <t>Data\Commodore shared files\Board local files\commodore_pet_vic-20_c64_port_pinouts.pdf</t>
+  </si>
+  <si>
+    <t>1024 x 4-bit</t>
+  </si>
+  <si>
+    <t>4096 x 8-bit</t>
+  </si>
+  <si>
+    <t>8192 x 8-bit</t>
+  </si>
+  <si>
+    <t>65536 x 1-bit</t>
+  </si>
+  <si>
+    <t>Dynamic RAM</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Revision date: </t>
     </r>
@@ -1351,8 +1347,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2025-April-14</t>
+      <t>2025-April-20</t>
     </r>
+  </si>
+  <si>
+    <t>6569 (PAL)
+6567 (NTSC)
+Pin meassurements:
+  PAL:
+    17: 0.98 MHz
+    21: 17.734472 MHz
+    22: 7.88 MHz
+  NTSC:
+    17: 1.02 MHz
+    21: 14.31818 MHz
+    22: 8.18 MHz
+Memory location:
+$D000-$D3FF</t>
   </si>
 </sst>
 </file>
@@ -1889,7 +1900,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -1905,17 +1916,17 @@
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="13" customFormat="1" ht="21">
       <c r="A3" s="13" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1928,7 +1939,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="29" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1939,7 +1950,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="33" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1958,12 +1969,12 @@
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1">
       <c r="A8" s="8" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="34" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
@@ -1983,13 +1994,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1997,10 +2008,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -2020,10 +2031,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
@@ -2044,10 +2055,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>9</v>
@@ -2067,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>9</v>
@@ -2090,10 +2101,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>9</v>
@@ -2113,10 +2124,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>9</v>
@@ -2229,9 +2240,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F347"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2247,12 +2258,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="13" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2260,12 +2271,12 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="33" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2306,10 +2317,10 @@
         <v>141</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>43</v>
@@ -2320,10 +2331,10 @@
         <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>43</v>
@@ -2334,10 +2345,10 @@
         <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>43</v>
@@ -2348,10 +2359,10 @@
         <v>198</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>43</v>
@@ -2362,10 +2373,10 @@
         <v>199</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>43</v>
@@ -2376,10 +2387,10 @@
         <v>200</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>43</v>
@@ -2390,10 +2401,10 @@
         <v>204</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>43</v>
@@ -2407,7 +2418,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>43</v>
@@ -2418,10 +2429,10 @@
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>43</v>
@@ -2435,7 +2446,7 @@
         <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>43</v>
@@ -2449,7 +2460,7 @@
         <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>43</v>
@@ -2463,7 +2474,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>43</v>
@@ -2477,7 +2488,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>43</v>
@@ -2491,7 +2502,7 @@
         <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -2505,7 +2516,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>43</v>
@@ -2516,10 +2527,10 @@
         <v>176</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>43</v>
@@ -2533,7 +2544,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>43</v>
@@ -2544,10 +2555,10 @@
         <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>43</v>
@@ -2561,7 +2572,7 @@
         <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>43</v>
@@ -2572,7 +2583,7 @@
         <v>143</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>43</v>
@@ -2583,7 +2594,7 @@
         <v>119</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>43</v>
@@ -2594,10 +2605,10 @@
         <v>127</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>43</v>
@@ -2611,7 +2622,7 @@
         <v>126</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>43</v>
@@ -2625,7 +2636,7 @@
         <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>43</v>
@@ -2636,10 +2647,10 @@
         <v>153</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>43</v>
@@ -2650,10 +2661,10 @@
         <v>151</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>43</v>
@@ -2664,10 +2675,10 @@
         <v>149</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>43</v>
@@ -2678,10 +2689,10 @@
         <v>147</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>43</v>
@@ -2692,10 +2703,10 @@
         <v>146</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>43</v>
@@ -2706,10 +2717,10 @@
         <v>165</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>43</v>
@@ -2720,10 +2731,10 @@
         <v>213</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>43</v>
@@ -2731,13 +2742,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="17" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>43</v>
@@ -2748,10 +2759,10 @@
         <v>212</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>43</v>
@@ -2765,7 +2776,7 @@
         <v>52</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>43</v>
@@ -2779,7 +2790,7 @@
         <v>111</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>43</v>
@@ -2790,7 +2801,7 @@
         <v>186</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>43</v>
@@ -2798,19 +2809,19 @@
     </row>
     <row r="45" spans="1:6" ht="28.8">
       <c r="A45" s="17" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2818,10 +2829,10 @@
         <v>84</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>43</v>
@@ -2832,10 +2843,10 @@
         <v>154</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>43</v>
@@ -2846,10 +2857,10 @@
         <v>152</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>43</v>
@@ -2860,10 +2871,10 @@
         <v>150</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>43</v>
@@ -2874,10 +2885,10 @@
         <v>148</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>43</v>
@@ -2885,13 +2896,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="17" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>43</v>
@@ -2902,10 +2913,10 @@
         <v>201</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>43</v>
@@ -2916,10 +2927,10 @@
         <v>128</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>43</v>
@@ -2930,10 +2941,10 @@
         <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>43</v>
@@ -2944,10 +2955,10 @@
         <v>209</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>43</v>
@@ -2958,10 +2969,10 @@
         <v>184</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>43</v>
@@ -2972,10 +2983,10 @@
         <v>185</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>43</v>
@@ -2986,10 +2997,10 @@
         <v>181</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>43</v>
@@ -3000,10 +3011,10 @@
         <v>182</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>43</v>
@@ -3014,10 +3025,10 @@
         <v>173</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>43</v>
@@ -3028,10 +3039,10 @@
         <v>172</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>43</v>
@@ -3042,10 +3053,10 @@
         <v>80</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>43</v>
@@ -3059,7 +3070,7 @@
         <v>52</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>43</v>
@@ -3070,10 +3081,10 @@
         <v>91</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>43</v>
@@ -3084,10 +3095,10 @@
         <v>171</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>43</v>
@@ -3101,7 +3112,7 @@
         <v>52</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>43</v>
@@ -3115,7 +3126,7 @@
         <v>52</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>43</v>
@@ -3126,10 +3137,10 @@
         <v>56</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>43</v>
@@ -3140,10 +3151,10 @@
         <v>55</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>43</v>
@@ -3154,10 +3165,10 @@
         <v>50</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>43</v>
@@ -3171,7 +3182,7 @@
         <v>61</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>43</v>
@@ -3182,10 +3193,10 @@
         <v>78</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>43</v>
@@ -3196,10 +3207,10 @@
         <v>47</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>43</v>
@@ -3213,7 +3224,7 @@
         <v>77</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>43</v>
@@ -3224,10 +3235,10 @@
         <v>81</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>43</v>
@@ -3238,10 +3249,10 @@
         <v>82</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>43</v>
@@ -3255,7 +3266,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>43</v>
@@ -3269,13 +3280,13 @@
         <v>97</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3283,10 +3294,10 @@
         <v>95</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>43</v>
@@ -3300,13 +3311,13 @@
         <v>99</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3317,7 +3328,7 @@
         <v>114</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>43</v>
@@ -3328,10 +3339,10 @@
         <v>112</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>43</v>
@@ -3342,10 +3353,10 @@
         <v>210</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>43</v>
@@ -3359,7 +3370,7 @@
         <v>52</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>43</v>
@@ -3370,10 +3381,10 @@
         <v>104</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>43</v>
@@ -3384,10 +3395,10 @@
         <v>121</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>43</v>
@@ -3398,10 +3409,10 @@
         <v>134</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>43</v>
@@ -3412,10 +3423,10 @@
         <v>120</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>43</v>
@@ -3426,10 +3437,10 @@
         <v>117</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>43</v>
@@ -3440,10 +3451,10 @@
         <v>115</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>43</v>
@@ -3454,10 +3465,10 @@
         <v>170</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>43</v>
@@ -3471,7 +3482,7 @@
         <v>52</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>43</v>
@@ -3482,10 +3493,10 @@
         <v>102</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>43</v>
@@ -3496,10 +3507,10 @@
         <v>109</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>43</v>
@@ -3513,7 +3524,7 @@
         <v>52</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>43</v>
@@ -3527,7 +3538,7 @@
         <v>52</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>43</v>
@@ -3535,10 +3546,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="26" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>43</v>
@@ -3549,10 +3560,10 @@
         <v>130</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>43</v>
@@ -3574,7 +3585,7 @@
         <v>164</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>43</v>
@@ -3666,10 +3677,10 @@
         <v>217</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>41</v>
@@ -3739,13 +3750,13 @@
         <v>6526</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>233</v>
+        <v>404</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="28.8">
@@ -3756,13 +3767,13 @@
         <v>6526</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>234</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="57.6">
@@ -3773,13 +3784,16 @@
         <v>2364</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E114" s="14" t="s">
+        <v>415</v>
+      </c>
       <c r="F114" s="1" t="s">
-        <v>288</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="28.8">
@@ -3790,13 +3804,16 @@
         <v>2364</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E115" s="14" t="s">
+        <v>415</v>
+      </c>
       <c r="F115" s="1" t="s">
-        <v>235</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="72">
@@ -3807,16 +3824,16 @@
         <v>2332</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>271</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="28.8">
@@ -3832,11 +3849,11 @@
       <c r="D117" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>305</v>
+      <c r="E117" s="14" t="s">
+        <v>413</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>236</v>
+        <v>409</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3847,13 +3864,13 @@
         <v>6510</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3864,7 +3881,7 @@
         <v>7406</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>49</v>
@@ -3878,16 +3895,16 @@
         <v>4164</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>232</v>
+        <v>417</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3898,16 +3915,16 @@
         <v>4164</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>232</v>
+        <v>417</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3918,16 +3935,16 @@
         <v>4164</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>232</v>
+        <v>417</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3938,16 +3955,16 @@
         <v>4164</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>232</v>
+        <v>417</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3958,7 +3975,7 @@
         <v>145</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>49</v>
@@ -3972,13 +3989,13 @@
         <v>167</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3989,7 +4006,7 @@
         <v>215</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>49</v>
@@ -4003,7 +4020,7 @@
         <v>4066</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>49</v>
@@ -4014,16 +4031,16 @@
         <v>211</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="28.8">
@@ -4040,10 +4057,10 @@
         <v>49</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="187.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="216">
       <c r="A130" s="17" t="s">
         <v>168</v>
       </c>
@@ -4057,7 +4074,7 @@
         <v>49</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>311</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4068,7 +4085,7 @@
         <v>556</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>49</v>
@@ -4082,16 +4099,16 @@
         <v>4164</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>232</v>
+        <v>417</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4102,16 +4119,16 @@
         <v>4164</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>232</v>
+        <v>417</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4122,16 +4139,16 @@
         <v>4164</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>232</v>
+        <v>417</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4142,16 +4159,16 @@
         <v>4164</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>232</v>
+        <v>417</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4162,7 +4179,7 @@
         <v>145</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>49</v>
@@ -4176,7 +4193,7 @@
         <v>203</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>49</v>
@@ -4187,10 +4204,10 @@
         <v>129</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>49</v>
@@ -4204,7 +4221,7 @@
         <v>4066</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>49</v>
@@ -4218,7 +4235,7 @@
         <v>48</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>49</v>
@@ -4232,7 +4249,7 @@
         <v>75</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>49</v>
@@ -4246,7 +4263,7 @@
         <v>58</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>49</v>
@@ -4260,7 +4277,7 @@
         <v>79</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>49</v>
@@ -4268,13 +4285,13 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="17" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>54</v>
@@ -4282,10 +4299,10 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>54</v>
@@ -4293,13 +4310,13 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="17" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>54</v>
@@ -4319,7 +4336,7 @@
         <v>54</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4336,7 +4353,7 @@
         <v>54</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="28.8">
@@ -4347,13 +4364,13 @@
         <v>142</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5188,12 +5205,12 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5208,7 +5225,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="29" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -5220,7 +5237,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="33" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -5272,7 +5289,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>141</v>
@@ -5294,7 +5311,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>72</v>
@@ -5316,7 +5333,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>118</v>
@@ -5338,7 +5355,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>44</v>
@@ -5358,7 +5375,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>45</v>
@@ -5378,7 +5395,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>46</v>
@@ -5398,7 +5415,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>105</v>
@@ -5418,7 +5435,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>143</v>
@@ -5438,7 +5455,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>119</v>
@@ -5458,7 +5475,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>127</v>
@@ -5478,7 +5495,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>125</v>
@@ -5498,7 +5515,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>108</v>
@@ -5518,7 +5535,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>110</v>
@@ -5538,10 +5555,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C22" s="19">
         <v>786</v>
@@ -5558,7 +5575,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>84</v>
@@ -5578,7 +5595,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>128</v>
@@ -5598,7 +5615,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>42</v>
@@ -5618,7 +5635,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>80</v>
@@ -5638,7 +5655,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>92</v>
@@ -5658,7 +5675,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>91</v>
@@ -5678,7 +5695,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" s="19" t="s">
         <v>57</v>
@@ -5698,7 +5715,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>56</v>
@@ -5718,7 +5735,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>55</v>
@@ -5738,7 +5755,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>50</v>
@@ -5758,7 +5775,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>60</v>
@@ -5778,7 +5795,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B34" s="19" t="s">
         <v>78</v>
@@ -5798,7 +5815,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>47</v>
@@ -5818,7 +5835,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B36" s="19" t="s">
         <v>76</v>
@@ -5838,7 +5855,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B37" s="19" t="s">
         <v>81</v>
@@ -5858,7 +5875,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B38" s="19" t="s">
         <v>82</v>
@@ -5878,7 +5895,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B39" s="19" t="s">
         <v>85</v>
@@ -5898,7 +5915,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>96</v>
@@ -5918,7 +5935,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>95</v>
@@ -5938,7 +5955,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>98</v>
@@ -5958,7 +5975,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>113</v>
@@ -5978,7 +5995,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>112</v>
@@ -5998,7 +6015,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>104</v>
@@ -6018,7 +6035,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>121</v>
@@ -6038,7 +6055,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B47" s="19" t="s">
         <v>134</v>
@@ -6058,7 +6075,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>120</v>
@@ -6078,7 +6095,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B49" s="19" t="s">
         <v>117</v>
@@ -6098,7 +6115,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>115</v>
@@ -6118,7 +6135,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>103</v>
@@ -6138,7 +6155,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>102</v>
@@ -6158,7 +6175,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>109</v>
@@ -6178,7 +6195,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>51</v>
@@ -6198,7 +6215,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>59</v>
@@ -6218,7 +6235,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>130</v>
@@ -6238,7 +6255,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>69</v>
@@ -6258,7 +6275,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>122</v>
@@ -6278,7 +6295,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>138</v>
@@ -6298,7 +6315,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>38</v>
@@ -6318,7 +6335,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>135</v>
@@ -6338,7 +6355,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>65</v>
@@ -6358,7 +6375,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>67</v>
@@ -6378,7 +6395,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>131</v>
@@ -6398,10 +6415,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C65" s="19">
         <v>2800</v>
@@ -6418,10 +6435,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C66" s="19">
         <v>2923</v>
@@ -6438,7 +6455,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>73</v>
@@ -6458,7 +6475,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>90</v>
@@ -6478,7 +6495,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>62</v>
@@ -6498,7 +6515,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>86</v>
@@ -6518,7 +6535,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>86</v>
@@ -6538,7 +6555,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>86</v>
@@ -6558,7 +6575,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>86</v>
@@ -6578,7 +6595,7 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>86</v>
@@ -6598,7 +6615,7 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>107</v>
@@ -6618,7 +6635,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>107</v>
@@ -6638,7 +6655,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>129</v>
@@ -6658,7 +6675,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>63</v>
@@ -6678,7 +6695,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>87</v>
@@ -6698,7 +6715,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>87</v>
@@ -6718,7 +6735,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>74</v>
@@ -6738,7 +6755,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>88</v>
@@ -6758,7 +6775,7 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>88</v>
@@ -6778,7 +6795,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>89</v>
@@ -6798,7 +6815,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>89</v>
@@ -6818,7 +6835,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>89</v>
@@ -6838,7 +6855,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>93</v>
@@ -6858,7 +6875,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>100</v>
@@ -6878,7 +6895,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>53</v>
@@ -6898,7 +6915,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>198</v>
@@ -6918,7 +6935,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>199</v>
@@ -6938,7 +6955,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>200</v>
@@ -6958,7 +6975,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>204</v>
@@ -6978,7 +6995,7 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>189</v>
@@ -6998,7 +7015,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>207</v>
@@ -7018,7 +7035,7 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>208</v>
@@ -7038,7 +7055,7 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>187</v>
@@ -7058,7 +7075,7 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>155</v>
@@ -7078,7 +7095,7 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>175</v>
@@ -7098,7 +7115,7 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>176</v>
@@ -7118,7 +7135,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>216</v>
@@ -7138,7 +7155,7 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B102" s="19" t="s">
         <v>153</v>
@@ -7158,7 +7175,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B103" s="19" t="s">
         <v>151</v>
@@ -7178,7 +7195,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>149</v>
@@ -7198,7 +7215,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B105" s="19" t="s">
         <v>147</v>
@@ -7218,7 +7235,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B106" s="19" t="s">
         <v>146</v>
@@ -7238,7 +7255,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B107" s="19" t="s">
         <v>165</v>
@@ -7258,7 +7275,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B108" s="19" t="s">
         <v>213</v>
@@ -7278,7 +7295,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B109" s="19" t="s">
         <v>212</v>
@@ -7298,7 +7315,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B110" s="19" t="s">
         <v>183</v>
@@ -7318,7 +7335,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B111" s="19" t="s">
         <v>186</v>
@@ -7338,7 +7355,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B112" s="19" t="s">
         <v>154</v>
@@ -7358,7 +7375,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B113" s="19" t="s">
         <v>152</v>
@@ -7378,7 +7395,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B114" s="19" t="s">
         <v>150</v>
@@ -7398,7 +7415,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B115" s="19" t="s">
         <v>148</v>
@@ -7418,10 +7435,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C116" s="19">
         <v>719</v>
@@ -7438,7 +7455,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B117" s="19" t="s">
         <v>201</v>
@@ -7458,7 +7475,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B118" s="19" t="s">
         <v>209</v>
@@ -7478,7 +7495,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B119" s="19" t="s">
         <v>184</v>
@@ -7498,7 +7515,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B120" s="19" t="s">
         <v>185</v>
@@ -7518,7 +7535,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B121" s="19" t="s">
         <v>181</v>
@@ -7538,7 +7555,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B122" s="19" t="s">
         <v>182</v>
@@ -7558,7 +7575,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B123" s="19" t="s">
         <v>173</v>
@@ -7578,7 +7595,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B124" s="19" t="s">
         <v>172</v>
@@ -7598,7 +7615,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>171</v>
@@ -7618,7 +7635,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>180</v>
@@ -7638,7 +7655,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B127" s="19" t="s">
         <v>210</v>
@@ -7658,7 +7675,7 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>174</v>
@@ -7678,7 +7695,7 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>170</v>
@@ -7698,7 +7715,7 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>194</v>
@@ -7718,7 +7735,7 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B131" s="19" t="s">
         <v>164</v>
@@ -7738,7 +7755,7 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B132" s="19" t="s">
         <v>188</v>
@@ -7758,7 +7775,7 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B133" s="19" t="s">
         <v>177</v>
@@ -7778,7 +7795,7 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>217</v>
@@ -7798,10 +7815,10 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C135" s="19">
         <v>3917</v>
@@ -7818,7 +7835,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B136" s="19" t="s">
         <v>195</v>
@@ -7838,7 +7855,7 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>196</v>
@@ -7858,7 +7875,7 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B138" s="19" t="s">
         <v>197</v>
@@ -7878,7 +7895,7 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B139" s="19" t="s">
         <v>205</v>
@@ -7898,7 +7915,7 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B140" s="19" t="s">
         <v>86</v>
@@ -7918,7 +7935,7 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B141" s="19" t="s">
         <v>162</v>
@@ -7938,7 +7955,7 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B142" s="19" t="s">
         <v>160</v>
@@ -7958,7 +7975,7 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B143" s="19" t="s">
         <v>158</v>
@@ -7978,7 +7995,7 @@
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B144" s="19" t="s">
         <v>156</v>
@@ -7998,7 +8015,7 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B145" s="19" t="s">
         <v>144</v>
@@ -8018,7 +8035,7 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B146" s="19" t="s">
         <v>166</v>
@@ -8038,7 +8055,7 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B147" s="19" t="s">
         <v>214</v>
@@ -8058,7 +8075,7 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B148" s="19" t="s">
         <v>214</v>
@@ -8078,7 +8095,7 @@
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>192</v>
@@ -8098,7 +8115,7 @@
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>211</v>
@@ -8118,7 +8135,7 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>190</v>
@@ -8138,7 +8155,7 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B152" s="19" t="s">
         <v>168</v>
@@ -8158,7 +8175,7 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>163</v>
@@ -8178,7 +8195,7 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B154" s="19" t="s">
         <v>161</v>
@@ -8198,7 +8215,7 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B155" s="19" t="s">
         <v>159</v>
@@ -8218,7 +8235,7 @@
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>157</v>
@@ -8238,7 +8255,7 @@
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>193</v>
@@ -8258,7 +8275,7 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>202</v>
@@ -8278,7 +8295,7 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B159" s="19" t="s">
         <v>129</v>
@@ -8298,7 +8315,7 @@
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>129</v>
@@ -8318,7 +8335,7 @@
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>129</v>
@@ -8338,7 +8355,7 @@
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>141</v>
@@ -8358,7 +8375,7 @@
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>72</v>
@@ -8378,7 +8395,7 @@
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B164" s="19" t="s">
         <v>118</v>
@@ -8398,7 +8415,7 @@
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B165" s="19" t="s">
         <v>198</v>
@@ -8418,7 +8435,7 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B166" s="19" t="s">
         <v>199</v>
@@ -8438,7 +8455,7 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>200</v>
@@ -8458,7 +8475,7 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B168" s="19" t="s">
         <v>204</v>
@@ -8478,7 +8495,7 @@
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B169" s="19" t="s">
         <v>44</v>
@@ -8498,7 +8515,7 @@
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>45</v>
@@ -8518,7 +8535,7 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B171" s="19" t="s">
         <v>189</v>
@@ -8538,7 +8555,7 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B172" s="19" t="s">
         <v>207</v>
@@ -8558,7 +8575,7 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B173" s="19" t="s">
         <v>208</v>
@@ -8578,7 +8595,7 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B174" s="19" t="s">
         <v>187</v>
@@ -8598,7 +8615,7 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>155</v>
@@ -8618,7 +8635,7 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B176" s="19" t="s">
         <v>175</v>
@@ -8638,7 +8655,7 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B177" s="19" t="s">
         <v>176</v>
@@ -8658,7 +8675,7 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B178" s="19" t="s">
         <v>216</v>
@@ -8678,7 +8695,7 @@
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B179" s="19" t="s">
         <v>46</v>
@@ -8698,7 +8715,7 @@
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B180" s="19" t="s">
         <v>105</v>
@@ -8718,7 +8735,7 @@
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>143</v>
@@ -8738,7 +8755,7 @@
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>119</v>
@@ -8758,7 +8775,7 @@
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B183" s="19" t="s">
         <v>127</v>
@@ -8778,7 +8795,7 @@
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B184" s="19" t="s">
         <v>125</v>
@@ -8798,7 +8815,7 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B185" s="19" t="s">
         <v>108</v>
@@ -8818,7 +8835,7 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B186" s="19" t="s">
         <v>153</v>
@@ -8838,7 +8855,7 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B187" s="19" t="s">
         <v>151</v>
@@ -8858,7 +8875,7 @@
     </row>
     <row r="188" spans="1:6">
       <c r="A188" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B188" s="19" t="s">
         <v>149</v>
@@ -8878,7 +8895,7 @@
     </row>
     <row r="189" spans="1:6">
       <c r="A189" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B189" s="19" t="s">
         <v>147</v>
@@ -8898,7 +8915,7 @@
     </row>
     <row r="190" spans="1:6">
       <c r="A190" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B190" s="19" t="s">
         <v>146</v>
@@ -8918,7 +8935,7 @@
     </row>
     <row r="191" spans="1:6">
       <c r="A191" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B191" s="19" t="s">
         <v>165</v>
@@ -8938,7 +8955,7 @@
     </row>
     <row r="192" spans="1:6">
       <c r="A192" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B192" s="19" t="s">
         <v>213</v>
@@ -8958,10 +8975,10 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C193" s="19">
         <v>1143</v>
@@ -8978,7 +8995,7 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B194" s="19" t="s">
         <v>212</v>
@@ -8998,7 +9015,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B195" s="19" t="s">
         <v>183</v>
@@ -9018,7 +9035,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B196" s="19" t="s">
         <v>110</v>
@@ -9038,7 +9055,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>186</v>
@@ -9058,10 +9075,10 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C198" s="19">
         <v>128</v>
@@ -9078,7 +9095,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B199" s="19" t="s">
         <v>84</v>
@@ -9098,7 +9115,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>154</v>
@@ -9118,7 +9135,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B201" s="19" t="s">
         <v>152</v>
@@ -9138,7 +9155,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B202" s="19" t="s">
         <v>150</v>
@@ -9158,7 +9175,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>148</v>
@@ -9178,10 +9195,10 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C204" s="19">
         <v>799</v>
@@ -9198,7 +9215,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B205" s="19" t="s">
         <v>201</v>
@@ -9218,7 +9235,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>128</v>
@@ -9238,7 +9255,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B207" s="19" t="s">
         <v>42</v>
@@ -9258,7 +9275,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B208" s="19" t="s">
         <v>209</v>
@@ -9278,7 +9295,7 @@
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B209" s="19" t="s">
         <v>184</v>
@@ -9298,7 +9315,7 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B210" s="19" t="s">
         <v>185</v>
@@ -9318,7 +9335,7 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B211" s="19" t="s">
         <v>181</v>
@@ -9338,7 +9355,7 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B212" s="19" t="s">
         <v>182</v>
@@ -9358,7 +9375,7 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B213" s="19" t="s">
         <v>173</v>
@@ -9378,7 +9395,7 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B214" s="19" t="s">
         <v>172</v>
@@ -9398,7 +9415,7 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B215" s="19" t="s">
         <v>80</v>
@@ -9418,7 +9435,7 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B216" s="19" t="s">
         <v>92</v>
@@ -9438,7 +9455,7 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B217" s="19" t="s">
         <v>91</v>
@@ -9458,7 +9475,7 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B218" s="19" t="s">
         <v>171</v>
@@ -9478,7 +9495,7 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B219" s="19" t="s">
         <v>180</v>
@@ -9498,7 +9515,7 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B220" s="19" t="s">
         <v>57</v>
@@ -9518,7 +9535,7 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B221" s="19" t="s">
         <v>56</v>
@@ -9538,7 +9555,7 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" s="19" t="s">
         <v>55</v>
@@ -9558,7 +9575,7 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B223" s="19" t="s">
         <v>50</v>
@@ -9578,7 +9595,7 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="19" t="s">
         <v>60</v>
@@ -9598,7 +9615,7 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B225" s="19" t="s">
         <v>78</v>
@@ -9618,7 +9635,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B226" s="19" t="s">
         <v>47</v>
@@ -9638,7 +9655,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B227" s="19" t="s">
         <v>76</v>
@@ -9658,7 +9675,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B228" s="19" t="s">
         <v>81</v>
@@ -9678,7 +9695,7 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B229" s="19" t="s">
         <v>82</v>
@@ -9698,7 +9715,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B230" s="19" t="s">
         <v>85</v>
@@ -9718,7 +9735,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B231" s="19" t="s">
         <v>96</v>
@@ -9738,7 +9755,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B232" s="19" t="s">
         <v>95</v>
@@ -9758,7 +9775,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B233" s="19" t="s">
         <v>98</v>
@@ -9778,7 +9795,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B234" s="19" t="s">
         <v>113</v>
@@ -9798,7 +9815,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B235" s="19" t="s">
         <v>112</v>
@@ -9818,7 +9835,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B236" s="19" t="s">
         <v>210</v>
@@ -9838,7 +9855,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B237" s="19" t="s">
         <v>174</v>
@@ -9858,7 +9875,7 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B238" s="19" t="s">
         <v>104</v>
@@ -9878,7 +9895,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B239" s="19" t="s">
         <v>121</v>
@@ -9898,7 +9915,7 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B240" s="19" t="s">
         <v>134</v>
@@ -9918,7 +9935,7 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B241" s="19" t="s">
         <v>120</v>
@@ -9938,7 +9955,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B242" s="19" t="s">
         <v>117</v>
@@ -9958,7 +9975,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B243" s="19" t="s">
         <v>115</v>
@@ -9978,7 +9995,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B244" s="19" t="s">
         <v>170</v>
@@ -9998,7 +10015,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B245" s="19" t="s">
         <v>103</v>
@@ -10018,7 +10035,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B246" s="19" t="s">
         <v>102</v>
@@ -10038,7 +10055,7 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B247" s="19" t="s">
         <v>109</v>
@@ -10058,7 +10075,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B248" s="19" t="s">
         <v>51</v>
@@ -10078,7 +10095,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B249" s="19" t="s">
         <v>59</v>
@@ -10098,7 +10115,7 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B250" s="19" t="s">
         <v>130</v>
@@ -10118,7 +10135,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B251" s="19" t="s">
         <v>194</v>
@@ -10138,7 +10155,7 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B252" s="19" t="s">
         <v>164</v>
@@ -10158,7 +10175,7 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B253" s="19" t="s">
         <v>188</v>
@@ -10178,7 +10195,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B254" s="19" t="s">
         <v>69</v>
@@ -10198,7 +10215,7 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B255" s="19" t="s">
         <v>122</v>
@@ -10218,7 +10235,7 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B256" s="19" t="s">
         <v>138</v>
@@ -10238,7 +10255,7 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B257" s="19" t="s">
         <v>38</v>
@@ -10258,7 +10275,7 @@
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B258" s="19" t="s">
         <v>177</v>
@@ -10278,7 +10295,7 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B259" s="19" t="s">
         <v>217</v>
@@ -10298,7 +10315,7 @@
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B260" s="19" t="s">
         <v>135</v>
@@ -10318,7 +10335,7 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B261" s="19" t="s">
         <v>65</v>
@@ -10338,7 +10355,7 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B262" s="19" t="s">
         <v>67</v>
@@ -10358,7 +10375,7 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B263" s="19" t="s">
         <v>131</v>
@@ -10378,10 +10395,10 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B264" s="19" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C264" s="19">
         <v>2469</v>
@@ -10398,10 +10415,10 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C265" s="19">
         <v>1666</v>
@@ -10418,10 +10435,10 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B266" s="19" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C266" s="19">
         <v>2795</v>
@@ -10438,7 +10455,7 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B267" s="19" t="s">
         <v>73</v>
@@ -10458,7 +10475,7 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B268" s="19" t="s">
         <v>90</v>
@@ -10478,7 +10495,7 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B269" s="19" t="s">
         <v>195</v>
@@ -10498,7 +10515,7 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B270" s="19" t="s">
         <v>196</v>
@@ -10518,7 +10535,7 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B271" s="19" t="s">
         <v>197</v>
@@ -10538,7 +10555,7 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B272" s="19" t="s">
         <v>205</v>
@@ -10558,7 +10575,7 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B273" s="19" t="s">
         <v>62</v>
@@ -10578,7 +10595,7 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B274" s="19" t="s">
         <v>86</v>
@@ -10598,7 +10615,7 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B275" s="19" t="s">
         <v>162</v>
@@ -10618,7 +10635,7 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B276" s="19" t="s">
         <v>160</v>
@@ -10638,7 +10655,7 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B277" s="19" t="s">
         <v>158</v>
@@ -10658,7 +10675,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B278" s="19" t="s">
         <v>156</v>
@@ -10678,7 +10695,7 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B279" s="19" t="s">
         <v>144</v>
@@ -10698,7 +10715,7 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B280" s="19" t="s">
         <v>166</v>
@@ -10718,7 +10735,7 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B281" s="19" t="s">
         <v>214</v>
@@ -10738,7 +10755,7 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B282" s="19" t="s">
         <v>192</v>
@@ -10758,7 +10775,7 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B283" s="19" t="s">
         <v>211</v>
@@ -10778,7 +10795,7 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B284" s="19" t="s">
         <v>190</v>
@@ -10798,7 +10815,7 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B285" s="19" t="s">
         <v>168</v>
@@ -10818,7 +10835,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B286" s="19" t="s">
         <v>107</v>
@@ -10838,7 +10855,7 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B287" s="19" t="s">
         <v>163</v>
@@ -10858,7 +10875,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B288" s="19" t="s">
         <v>161</v>
@@ -10878,7 +10895,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B289" s="19" t="s">
         <v>159</v>
@@ -10898,7 +10915,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B290" s="19" t="s">
         <v>157</v>
@@ -10918,7 +10935,7 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B291" s="19" t="s">
         <v>193</v>
@@ -10938,7 +10955,7 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B292" s="19" t="s">
         <v>202</v>
@@ -10958,7 +10975,7 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B293" s="19" t="s">
         <v>129</v>
@@ -10978,7 +10995,7 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B294" s="19" t="s">
         <v>63</v>
@@ -10998,7 +11015,7 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B295" s="19" t="s">
         <v>87</v>
@@ -11018,7 +11035,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B296" s="19" t="s">
         <v>74</v>
@@ -11038,7 +11055,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B297" s="19" t="s">
         <v>88</v>
@@ -11058,7 +11075,7 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B298" s="19" t="s">
         <v>89</v>
@@ -11078,7 +11095,7 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B299" s="19" t="s">
         <v>93</v>
@@ -11098,7 +11115,7 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B300" s="19" t="s">
         <v>100</v>
@@ -11118,7 +11135,7 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B301" s="19" t="s">
         <v>53</v>
@@ -11138,7 +11155,7 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B302" s="19" t="s">
         <v>141</v>
@@ -11158,7 +11175,7 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B303" s="19" t="s">
         <v>72</v>
@@ -11178,7 +11195,7 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B304" s="19" t="s">
         <v>118</v>
@@ -11198,7 +11215,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B305" s="19" t="s">
         <v>198</v>
@@ -11218,7 +11235,7 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B306" s="19" t="s">
         <v>199</v>
@@ -11238,7 +11255,7 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B307" s="19" t="s">
         <v>200</v>
@@ -11258,7 +11275,7 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B308" s="19" t="s">
         <v>204</v>
@@ -11278,7 +11295,7 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B309" s="19" t="s">
         <v>44</v>
@@ -11298,7 +11315,7 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B310" s="19" t="s">
         <v>45</v>
@@ -11318,7 +11335,7 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B311" s="19" t="s">
         <v>189</v>
@@ -11338,7 +11355,7 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B312" s="19" t="s">
         <v>207</v>
@@ -11358,7 +11375,7 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B313" s="19" t="s">
         <v>208</v>
@@ -11378,7 +11395,7 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B314" s="19" t="s">
         <v>187</v>
@@ -11398,7 +11415,7 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B315" s="19" t="s">
         <v>155</v>
@@ -11418,7 +11435,7 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B316" s="19" t="s">
         <v>175</v>
@@ -11438,7 +11455,7 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B317" s="19" t="s">
         <v>176</v>
@@ -11458,7 +11475,7 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B318" s="19" t="s">
         <v>216</v>
@@ -11478,7 +11495,7 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B319" s="19" t="s">
         <v>46</v>
@@ -11498,7 +11515,7 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B320" s="19" t="s">
         <v>105</v>
@@ -11518,7 +11535,7 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B321" s="19" t="s">
         <v>143</v>
@@ -11538,7 +11555,7 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B322" s="19" t="s">
         <v>119</v>
@@ -11558,7 +11575,7 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B323" s="19" t="s">
         <v>127</v>
@@ -11578,7 +11595,7 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B324" s="19" t="s">
         <v>125</v>
@@ -11598,7 +11615,7 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B325" s="19" t="s">
         <v>108</v>
@@ -11618,7 +11635,7 @@
     </row>
     <row r="326" spans="1:6">
       <c r="A326" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B326" s="19" t="s">
         <v>153</v>
@@ -11638,7 +11655,7 @@
     </row>
     <row r="327" spans="1:6">
       <c r="A327" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B327" s="19" t="s">
         <v>151</v>
@@ -11658,7 +11675,7 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B328" s="19" t="s">
         <v>149</v>
@@ -11678,7 +11695,7 @@
     </row>
     <row r="329" spans="1:6">
       <c r="A329" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B329" s="19" t="s">
         <v>147</v>
@@ -11698,7 +11715,7 @@
     </row>
     <row r="330" spans="1:6">
       <c r="A330" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B330" s="19" t="s">
         <v>146</v>
@@ -11718,7 +11735,7 @@
     </row>
     <row r="331" spans="1:6">
       <c r="A331" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B331" s="19" t="s">
         <v>165</v>
@@ -11738,7 +11755,7 @@
     </row>
     <row r="332" spans="1:6">
       <c r="A332" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B332" s="19" t="s">
         <v>213</v>
@@ -11758,10 +11775,10 @@
     </row>
     <row r="333" spans="1:6">
       <c r="A333" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B333" s="19" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C333" s="19">
         <v>1887</v>
@@ -11778,7 +11795,7 @@
     </row>
     <row r="334" spans="1:6">
       <c r="A334" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B334" s="19" t="s">
         <v>212</v>
@@ -11798,7 +11815,7 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B335" s="19" t="s">
         <v>183</v>
@@ -11818,7 +11835,7 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B336" s="19" t="s">
         <v>110</v>
@@ -11838,7 +11855,7 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B337" s="19" t="s">
         <v>186</v>
@@ -11858,10 +11875,10 @@
     </row>
     <row r="338" spans="1:6">
       <c r="A338" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B338" s="19" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C338" s="19">
         <v>2879</v>
@@ -11878,7 +11895,7 @@
     </row>
     <row r="339" spans="1:6">
       <c r="A339" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B339" s="19" t="s">
         <v>84</v>
@@ -11898,7 +11915,7 @@
     </row>
     <row r="340" spans="1:6">
       <c r="A340" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B340" s="19" t="s">
         <v>154</v>
@@ -11918,7 +11935,7 @@
     </row>
     <row r="341" spans="1:6">
       <c r="A341" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B341" s="19" t="s">
         <v>152</v>
@@ -11938,7 +11955,7 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B342" s="19" t="s">
         <v>150</v>
@@ -11958,7 +11975,7 @@
     </row>
     <row r="343" spans="1:6">
       <c r="A343" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B343" s="19" t="s">
         <v>148</v>
@@ -11978,10 +11995,10 @@
     </row>
     <row r="344" spans="1:6">
       <c r="A344" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B344" s="19" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C344" s="19">
         <v>2231</v>
@@ -11998,7 +12015,7 @@
     </row>
     <row r="345" spans="1:6">
       <c r="A345" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B345" s="19" t="s">
         <v>201</v>
@@ -12018,7 +12035,7 @@
     </row>
     <row r="346" spans="1:6">
       <c r="A346" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B346" s="19" t="s">
         <v>128</v>
@@ -12038,7 +12055,7 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B347" s="19" t="s">
         <v>42</v>
@@ -12058,7 +12075,7 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B348" s="19" t="s">
         <v>209</v>
@@ -12078,7 +12095,7 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B349" s="19" t="s">
         <v>184</v>
@@ -12098,7 +12115,7 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B350" s="19" t="s">
         <v>185</v>
@@ -12118,7 +12135,7 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B351" s="19" t="s">
         <v>181</v>
@@ -12138,7 +12155,7 @@
     </row>
     <row r="352" spans="1:6">
       <c r="A352" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B352" s="19" t="s">
         <v>182</v>
@@ -12158,7 +12175,7 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B353" s="19" t="s">
         <v>173</v>
@@ -12178,7 +12195,7 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B354" s="19" t="s">
         <v>172</v>
@@ -12198,7 +12215,7 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B355" s="19" t="s">
         <v>80</v>
@@ -12218,7 +12235,7 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B356" s="19" t="s">
         <v>92</v>
@@ -12238,7 +12255,7 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B357" s="19" t="s">
         <v>91</v>
@@ -12258,7 +12275,7 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B358" s="19" t="s">
         <v>171</v>
@@ -12278,7 +12295,7 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B359" s="19" t="s">
         <v>180</v>
@@ -12298,7 +12315,7 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B360" s="19" t="s">
         <v>57</v>
@@ -12318,7 +12335,7 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B361" s="19" t="s">
         <v>56</v>
@@ -12338,7 +12355,7 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B362" s="19" t="s">
         <v>55</v>
@@ -12358,7 +12375,7 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B363" s="19" t="s">
         <v>50</v>
@@ -12378,7 +12395,7 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B364" s="19" t="s">
         <v>60</v>
@@ -12398,7 +12415,7 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B365" s="19" t="s">
         <v>78</v>
@@ -12418,7 +12435,7 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B366" s="19" t="s">
         <v>47</v>
@@ -12438,7 +12455,7 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B367" s="19" t="s">
         <v>76</v>
@@ -12458,7 +12475,7 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B368" s="19" t="s">
         <v>81</v>
@@ -12478,7 +12495,7 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B369" s="19" t="s">
         <v>82</v>
@@ -12498,7 +12515,7 @@
     </row>
     <row r="370" spans="1:6">
       <c r="A370" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B370" s="19" t="s">
         <v>85</v>
@@ -12518,7 +12535,7 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B371" s="19" t="s">
         <v>96</v>
@@ -12538,7 +12555,7 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B372" s="19" t="s">
         <v>95</v>
@@ -12558,7 +12575,7 @@
     </row>
     <row r="373" spans="1:6">
       <c r="A373" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B373" s="19" t="s">
         <v>98</v>
@@ -12578,7 +12595,7 @@
     </row>
     <row r="374" spans="1:6">
       <c r="A374" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B374" s="19" t="s">
         <v>113</v>
@@ -12598,7 +12615,7 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B375" s="19" t="s">
         <v>112</v>
@@ -12618,7 +12635,7 @@
     </row>
     <row r="376" spans="1:6">
       <c r="A376" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B376" s="19" t="s">
         <v>210</v>
@@ -12638,7 +12655,7 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B377" s="19" t="s">
         <v>174</v>
@@ -12658,7 +12675,7 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B378" s="19" t="s">
         <v>104</v>
@@ -12678,7 +12695,7 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B379" s="19" t="s">
         <v>121</v>
@@ -12698,7 +12715,7 @@
     </row>
     <row r="380" spans="1:6">
       <c r="A380" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B380" s="19" t="s">
         <v>134</v>
@@ -12718,7 +12735,7 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B381" s="19" t="s">
         <v>120</v>
@@ -12738,7 +12755,7 @@
     </row>
     <row r="382" spans="1:6">
       <c r="A382" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B382" s="19" t="s">
         <v>117</v>
@@ -12758,7 +12775,7 @@
     </row>
     <row r="383" spans="1:6">
       <c r="A383" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B383" s="19" t="s">
         <v>115</v>
@@ -12778,7 +12795,7 @@
     </row>
     <row r="384" spans="1:6">
       <c r="A384" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B384" s="19" t="s">
         <v>170</v>
@@ -12798,7 +12815,7 @@
     </row>
     <row r="385" spans="1:6">
       <c r="A385" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B385" s="19" t="s">
         <v>103</v>
@@ -12818,7 +12835,7 @@
     </row>
     <row r="386" spans="1:6">
       <c r="A386" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B386" s="19" t="s">
         <v>102</v>
@@ -12838,7 +12855,7 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B387" s="19" t="s">
         <v>109</v>
@@ -12858,7 +12875,7 @@
     </row>
     <row r="388" spans="1:6">
       <c r="A388" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B388" s="19" t="s">
         <v>51</v>
@@ -12878,7 +12895,7 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B389" s="19" t="s">
         <v>59</v>
@@ -12898,7 +12915,7 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B390" s="19" t="s">
         <v>130</v>
@@ -12918,7 +12935,7 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B391" s="19" t="s">
         <v>194</v>
@@ -12938,7 +12955,7 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B392" s="19" t="s">
         <v>164</v>
@@ -12958,7 +12975,7 @@
     </row>
     <row r="393" spans="1:6">
       <c r="A393" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B393" s="19" t="s">
         <v>188</v>
@@ -12978,7 +12995,7 @@
     </row>
     <row r="394" spans="1:6">
       <c r="A394" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B394" s="19" t="s">
         <v>69</v>
@@ -12998,7 +13015,7 @@
     </row>
     <row r="395" spans="1:6">
       <c r="A395" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B395" s="19" t="s">
         <v>122</v>
@@ -13018,7 +13035,7 @@
     </row>
     <row r="396" spans="1:6">
       <c r="A396" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B396" s="19" t="s">
         <v>138</v>
@@ -13038,7 +13055,7 @@
     </row>
     <row r="397" spans="1:6">
       <c r="A397" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B397" s="19" t="s">
         <v>38</v>
@@ -13058,7 +13075,7 @@
     </row>
     <row r="398" spans="1:6">
       <c r="A398" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B398" s="19" t="s">
         <v>177</v>
@@ -13078,7 +13095,7 @@
     </row>
     <row r="399" spans="1:6">
       <c r="A399" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B399" s="19" t="s">
         <v>217</v>
@@ -13098,7 +13115,7 @@
     </row>
     <row r="400" spans="1:6">
       <c r="A400" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B400" s="19" t="s">
         <v>135</v>
@@ -13118,7 +13135,7 @@
     </row>
     <row r="401" spans="1:6">
       <c r="A401" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B401" s="19" t="s">
         <v>65</v>
@@ -13138,7 +13155,7 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B402" s="19" t="s">
         <v>67</v>
@@ -13158,7 +13175,7 @@
     </row>
     <row r="403" spans="1:6">
       <c r="A403" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B403" s="19" t="s">
         <v>131</v>
@@ -13178,10 +13195,10 @@
     </row>
     <row r="404" spans="1:6">
       <c r="A404" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B404" s="19" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C404" s="19">
         <v>305</v>
@@ -13198,10 +13215,10 @@
     </row>
     <row r="405" spans="1:6">
       <c r="A405" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B405" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C405" s="19">
         <v>907</v>
@@ -13218,10 +13235,10 @@
     </row>
     <row r="406" spans="1:6">
       <c r="A406" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B406" s="19" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C406" s="19">
         <v>93</v>
@@ -13238,7 +13255,7 @@
     </row>
     <row r="407" spans="1:6">
       <c r="A407" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B407" s="19" t="s">
         <v>73</v>
@@ -13258,7 +13275,7 @@
     </row>
     <row r="408" spans="1:6">
       <c r="A408" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B408" s="19" t="s">
         <v>90</v>
@@ -13278,7 +13295,7 @@
     </row>
     <row r="409" spans="1:6">
       <c r="A409" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B409" s="19" t="s">
         <v>195</v>
@@ -13298,7 +13315,7 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B410" s="19" t="s">
         <v>196</v>
@@ -13318,7 +13335,7 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B411" s="19" t="s">
         <v>197</v>
@@ -13338,7 +13355,7 @@
     </row>
     <row r="412" spans="1:6">
       <c r="A412" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B412" s="19" t="s">
         <v>205</v>
@@ -13358,7 +13375,7 @@
     </row>
     <row r="413" spans="1:6">
       <c r="A413" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B413" s="19" t="s">
         <v>62</v>
@@ -13378,7 +13395,7 @@
     </row>
     <row r="414" spans="1:6">
       <c r="A414" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B414" s="19" t="s">
         <v>86</v>
@@ -13398,7 +13415,7 @@
     </row>
     <row r="415" spans="1:6">
       <c r="A415" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B415" s="19" t="s">
         <v>162</v>
@@ -13418,7 +13435,7 @@
     </row>
     <row r="416" spans="1:6">
       <c r="A416" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B416" s="19" t="s">
         <v>160</v>
@@ -13438,7 +13455,7 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B417" s="19" t="s">
         <v>158</v>
@@ -13458,7 +13475,7 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B418" s="19" t="s">
         <v>156</v>
@@ -13478,7 +13495,7 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B419" s="19" t="s">
         <v>144</v>
@@ -13498,7 +13515,7 @@
     </row>
     <row r="420" spans="1:6">
       <c r="A420" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B420" s="19" t="s">
         <v>166</v>
@@ -13518,7 +13535,7 @@
     </row>
     <row r="421" spans="1:6">
       <c r="A421" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B421" s="19" t="s">
         <v>214</v>
@@ -13538,7 +13555,7 @@
     </row>
     <row r="422" spans="1:6">
       <c r="A422" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B422" s="19" t="s">
         <v>192</v>
@@ -13558,7 +13575,7 @@
     </row>
     <row r="423" spans="1:6">
       <c r="A423" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B423" s="19" t="s">
         <v>211</v>
@@ -13578,7 +13595,7 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B424" s="19" t="s">
         <v>190</v>
@@ -13598,7 +13615,7 @@
     </row>
     <row r="425" spans="1:6">
       <c r="A425" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B425" s="19" t="s">
         <v>168</v>
@@ -13618,7 +13635,7 @@
     </row>
     <row r="426" spans="1:6">
       <c r="A426" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B426" s="19" t="s">
         <v>107</v>
@@ -13638,7 +13655,7 @@
     </row>
     <row r="427" spans="1:6">
       <c r="A427" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B427" s="19" t="s">
         <v>163</v>
@@ -13658,7 +13675,7 @@
     </row>
     <row r="428" spans="1:6">
       <c r="A428" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B428" s="19" t="s">
         <v>161</v>
@@ -13678,7 +13695,7 @@
     </row>
     <row r="429" spans="1:6">
       <c r="A429" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B429" s="19" t="s">
         <v>159</v>
@@ -13698,7 +13715,7 @@
     </row>
     <row r="430" spans="1:6">
       <c r="A430" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B430" s="19" t="s">
         <v>157</v>
@@ -13718,7 +13735,7 @@
     </row>
     <row r="431" spans="1:6">
       <c r="A431" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B431" s="19" t="s">
         <v>193</v>
@@ -13738,7 +13755,7 @@
     </row>
     <row r="432" spans="1:6">
       <c r="A432" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B432" s="19" t="s">
         <v>202</v>
@@ -13758,7 +13775,7 @@
     </row>
     <row r="433" spans="1:6">
       <c r="A433" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B433" s="19" t="s">
         <v>129</v>
@@ -13778,7 +13795,7 @@
     </row>
     <row r="434" spans="1:6">
       <c r="A434" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B434" s="19" t="s">
         <v>63</v>
@@ -13798,7 +13815,7 @@
     </row>
     <row r="435" spans="1:6">
       <c r="A435" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B435" s="19" t="s">
         <v>87</v>
@@ -13818,7 +13835,7 @@
     </row>
     <row r="436" spans="1:6">
       <c r="A436" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B436" s="19" t="s">
         <v>74</v>
@@ -13838,7 +13855,7 @@
     </row>
     <row r="437" spans="1:6">
       <c r="A437" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B437" s="19" t="s">
         <v>88</v>
@@ -13858,7 +13875,7 @@
     </row>
     <row r="438" spans="1:6">
       <c r="A438" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B438" s="19" t="s">
         <v>89</v>
@@ -13878,7 +13895,7 @@
     </row>
     <row r="439" spans="1:6">
       <c r="A439" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B439" s="19" t="s">
         <v>93</v>
@@ -13898,7 +13915,7 @@
     </row>
     <row r="440" spans="1:6">
       <c r="A440" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B440" s="19" t="s">
         <v>100</v>
@@ -13918,7 +13935,7 @@
     </row>
     <row r="441" spans="1:6">
       <c r="A441" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B441" s="19" t="s">
         <v>53</v>
@@ -13938,7 +13955,7 @@
     </row>
     <row r="442" spans="1:6">
       <c r="A442" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B442" s="19" t="s">
         <v>141</v>
@@ -13958,7 +13975,7 @@
     </row>
     <row r="443" spans="1:6">
       <c r="A443" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B443" s="19" t="s">
         <v>72</v>
@@ -13978,7 +13995,7 @@
     </row>
     <row r="444" spans="1:6">
       <c r="A444" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B444" s="19" t="s">
         <v>118</v>
@@ -13998,7 +14015,7 @@
     </row>
     <row r="445" spans="1:6">
       <c r="A445" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B445" s="19" t="s">
         <v>198</v>
@@ -14018,7 +14035,7 @@
     </row>
     <row r="446" spans="1:6">
       <c r="A446" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B446" s="19" t="s">
         <v>199</v>
@@ -14038,7 +14055,7 @@
     </row>
     <row r="447" spans="1:6">
       <c r="A447" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B447" s="19" t="s">
         <v>200</v>
@@ -14058,7 +14075,7 @@
     </row>
     <row r="448" spans="1:6">
       <c r="A448" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B448" s="19" t="s">
         <v>204</v>
@@ -14078,7 +14095,7 @@
     </row>
     <row r="449" spans="1:6">
       <c r="A449" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B449" s="19" t="s">
         <v>44</v>
@@ -14098,7 +14115,7 @@
     </row>
     <row r="450" spans="1:6">
       <c r="A450" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B450" s="19" t="s">
         <v>45</v>
@@ -14118,7 +14135,7 @@
     </row>
     <row r="451" spans="1:6">
       <c r="A451" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B451" s="19" t="s">
         <v>189</v>
@@ -14138,7 +14155,7 @@
     </row>
     <row r="452" spans="1:6">
       <c r="A452" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B452" s="19" t="s">
         <v>207</v>
@@ -14158,7 +14175,7 @@
     </row>
     <row r="453" spans="1:6">
       <c r="A453" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B453" s="19" t="s">
         <v>208</v>
@@ -14178,7 +14195,7 @@
     </row>
     <row r="454" spans="1:6">
       <c r="A454" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B454" s="19" t="s">
         <v>187</v>
@@ -14198,7 +14215,7 @@
     </row>
     <row r="455" spans="1:6">
       <c r="A455" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B455" s="19" t="s">
         <v>155</v>
@@ -14218,7 +14235,7 @@
     </row>
     <row r="456" spans="1:6">
       <c r="A456" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B456" s="19" t="s">
         <v>175</v>
@@ -14238,7 +14255,7 @@
     </row>
     <row r="457" spans="1:6">
       <c r="A457" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B457" s="19" t="s">
         <v>176</v>
@@ -14258,7 +14275,7 @@
     </row>
     <row r="458" spans="1:6">
       <c r="A458" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B458" s="19" t="s">
         <v>216</v>
@@ -14278,7 +14295,7 @@
     </row>
     <row r="459" spans="1:6">
       <c r="A459" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B459" s="19" t="s">
         <v>46</v>
@@ -14298,7 +14315,7 @@
     </row>
     <row r="460" spans="1:6">
       <c r="A460" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B460" s="19" t="s">
         <v>105</v>
@@ -14318,7 +14335,7 @@
     </row>
     <row r="461" spans="1:6">
       <c r="A461" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B461" s="19" t="s">
         <v>143</v>
@@ -14338,7 +14355,7 @@
     </row>
     <row r="462" spans="1:6">
       <c r="A462" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B462" s="19" t="s">
         <v>119</v>
@@ -14358,7 +14375,7 @@
     </row>
     <row r="463" spans="1:6">
       <c r="A463" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B463" s="19" t="s">
         <v>127</v>
@@ -14378,7 +14395,7 @@
     </row>
     <row r="464" spans="1:6">
       <c r="A464" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B464" s="19" t="s">
         <v>125</v>
@@ -14398,7 +14415,7 @@
     </row>
     <row r="465" spans="1:6">
       <c r="A465" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B465" s="19" t="s">
         <v>108</v>
@@ -14418,7 +14435,7 @@
     </row>
     <row r="466" spans="1:6">
       <c r="A466" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B466" s="19" t="s">
         <v>153</v>
@@ -14438,7 +14455,7 @@
     </row>
     <row r="467" spans="1:6">
       <c r="A467" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B467" s="19" t="s">
         <v>151</v>
@@ -14458,7 +14475,7 @@
     </row>
     <row r="468" spans="1:6">
       <c r="A468" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B468" s="19" t="s">
         <v>149</v>
@@ -14478,7 +14495,7 @@
     </row>
     <row r="469" spans="1:6">
       <c r="A469" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B469" s="19" t="s">
         <v>147</v>
@@ -14498,7 +14515,7 @@
     </row>
     <row r="470" spans="1:6">
       <c r="A470" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B470" s="19" t="s">
         <v>146</v>
@@ -14518,7 +14535,7 @@
     </row>
     <row r="471" spans="1:6">
       <c r="A471" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B471" s="19" t="s">
         <v>165</v>
@@ -14538,7 +14555,7 @@
     </row>
     <row r="472" spans="1:6">
       <c r="A472" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B472" s="19" t="s">
         <v>213</v>
@@ -14558,10 +14575,10 @@
     </row>
     <row r="473" spans="1:6">
       <c r="A473" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B473" s="19" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C473" s="19">
         <v>1522</v>
@@ -14578,7 +14595,7 @@
     </row>
     <row r="474" spans="1:6">
       <c r="A474" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B474" s="19" t="s">
         <v>212</v>
@@ -14598,7 +14615,7 @@
     </row>
     <row r="475" spans="1:6">
       <c r="A475" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B475" s="19" t="s">
         <v>183</v>
@@ -14618,7 +14635,7 @@
     </row>
     <row r="476" spans="1:6">
       <c r="A476" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B476" s="19" t="s">
         <v>110</v>
@@ -14638,7 +14655,7 @@
     </row>
     <row r="477" spans="1:6">
       <c r="A477" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B477" s="19" t="s">
         <v>186</v>
@@ -14658,10 +14675,10 @@
     </row>
     <row r="478" spans="1:6">
       <c r="A478" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B478" s="19" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C478" s="19">
         <v>262</v>
@@ -14678,7 +14695,7 @@
     </row>
     <row r="479" spans="1:6">
       <c r="A479" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B479" s="19" t="s">
         <v>84</v>
@@ -14698,7 +14715,7 @@
     </row>
     <row r="480" spans="1:6">
       <c r="A480" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B480" s="19" t="s">
         <v>154</v>
@@ -14718,7 +14735,7 @@
     </row>
     <row r="481" spans="1:6">
       <c r="A481" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B481" s="19" t="s">
         <v>152</v>
@@ -14738,7 +14755,7 @@
     </row>
     <row r="482" spans="1:6">
       <c r="A482" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B482" s="19" t="s">
         <v>150</v>
@@ -14758,7 +14775,7 @@
     </row>
     <row r="483" spans="1:6">
       <c r="A483" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B483" s="19" t="s">
         <v>148</v>
@@ -14778,10 +14795,10 @@
     </row>
     <row r="484" spans="1:6">
       <c r="A484" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B484" s="19" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C484" s="19">
         <v>1095</v>
@@ -14798,7 +14815,7 @@
     </row>
     <row r="485" spans="1:6">
       <c r="A485" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B485" s="19" t="s">
         <v>201</v>
@@ -14818,7 +14835,7 @@
     </row>
     <row r="486" spans="1:6">
       <c r="A486" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B486" s="19" t="s">
         <v>128</v>
@@ -14838,7 +14855,7 @@
     </row>
     <row r="487" spans="1:6">
       <c r="A487" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B487" s="19" t="s">
         <v>42</v>
@@ -14858,7 +14875,7 @@
     </row>
     <row r="488" spans="1:6">
       <c r="A488" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>209</v>
@@ -14878,7 +14895,7 @@
     </row>
     <row r="489" spans="1:6">
       <c r="A489" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B489" s="19" t="s">
         <v>184</v>
@@ -14898,7 +14915,7 @@
     </row>
     <row r="490" spans="1:6">
       <c r="A490" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B490" s="19" t="s">
         <v>185</v>
@@ -14918,7 +14935,7 @@
     </row>
     <row r="491" spans="1:6">
       <c r="A491" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B491" s="19" t="s">
         <v>181</v>
@@ -14938,7 +14955,7 @@
     </row>
     <row r="492" spans="1:6">
       <c r="A492" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B492" s="19" t="s">
         <v>182</v>
@@ -14958,7 +14975,7 @@
     </row>
     <row r="493" spans="1:6">
       <c r="A493" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B493" s="19" t="s">
         <v>173</v>
@@ -14978,7 +14995,7 @@
     </row>
     <row r="494" spans="1:6">
       <c r="A494" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B494" s="19" t="s">
         <v>172</v>
@@ -14998,7 +15015,7 @@
     </row>
     <row r="495" spans="1:6">
       <c r="A495" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B495" s="19" t="s">
         <v>80</v>
@@ -15018,7 +15035,7 @@
     </row>
     <row r="496" spans="1:6">
       <c r="A496" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B496" s="19" t="s">
         <v>92</v>
@@ -15038,7 +15055,7 @@
     </row>
     <row r="497" spans="1:6">
       <c r="A497" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B497" s="19" t="s">
         <v>91</v>
@@ -15058,7 +15075,7 @@
     </row>
     <row r="498" spans="1:6">
       <c r="A498" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B498" s="19" t="s">
         <v>171</v>
@@ -15078,7 +15095,7 @@
     </row>
     <row r="499" spans="1:6">
       <c r="A499" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B499" s="19" t="s">
         <v>180</v>
@@ -15098,7 +15115,7 @@
     </row>
     <row r="500" spans="1:6">
       <c r="A500" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B500" s="19" t="s">
         <v>57</v>
@@ -15118,7 +15135,7 @@
     </row>
     <row r="501" spans="1:6">
       <c r="A501" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B501" s="19" t="s">
         <v>56</v>
@@ -15138,7 +15155,7 @@
     </row>
     <row r="502" spans="1:6">
       <c r="A502" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B502" s="19" t="s">
         <v>55</v>
@@ -15158,7 +15175,7 @@
     </row>
     <row r="503" spans="1:6">
       <c r="A503" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B503" s="19" t="s">
         <v>50</v>
@@ -15178,7 +15195,7 @@
     </row>
     <row r="504" spans="1:6">
       <c r="A504" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B504" s="19" t="s">
         <v>60</v>
@@ -15198,7 +15215,7 @@
     </row>
     <row r="505" spans="1:6">
       <c r="A505" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B505" s="19" t="s">
         <v>78</v>
@@ -15218,7 +15235,7 @@
     </row>
     <row r="506" spans="1:6">
       <c r="A506" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B506" s="19" t="s">
         <v>47</v>
@@ -15238,7 +15255,7 @@
     </row>
     <row r="507" spans="1:6">
       <c r="A507" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B507" s="19" t="s">
         <v>76</v>
@@ -15258,7 +15275,7 @@
     </row>
     <row r="508" spans="1:6">
       <c r="A508" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B508" s="19" t="s">
         <v>81</v>
@@ -15278,7 +15295,7 @@
     </row>
     <row r="509" spans="1:6">
       <c r="A509" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B509" s="19" t="s">
         <v>82</v>
@@ -15298,7 +15315,7 @@
     </row>
     <row r="510" spans="1:6">
       <c r="A510" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B510" s="19" t="s">
         <v>85</v>
@@ -15318,7 +15335,7 @@
     </row>
     <row r="511" spans="1:6">
       <c r="A511" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B511" s="19" t="s">
         <v>96</v>
@@ -15338,7 +15355,7 @@
     </row>
     <row r="512" spans="1:6">
       <c r="A512" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B512" s="19" t="s">
         <v>95</v>
@@ -15358,7 +15375,7 @@
     </row>
     <row r="513" spans="1:6">
       <c r="A513" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B513" s="19" t="s">
         <v>98</v>
@@ -15378,7 +15395,7 @@
     </row>
     <row r="514" spans="1:6">
       <c r="A514" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B514" s="19" t="s">
         <v>113</v>
@@ -15398,7 +15415,7 @@
     </row>
     <row r="515" spans="1:6">
       <c r="A515" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B515" s="19" t="s">
         <v>112</v>
@@ -15418,7 +15435,7 @@
     </row>
     <row r="516" spans="1:6">
       <c r="A516" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B516" s="19" t="s">
         <v>210</v>
@@ -15438,7 +15455,7 @@
     </row>
     <row r="517" spans="1:6">
       <c r="A517" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B517" s="19" t="s">
         <v>174</v>
@@ -15458,7 +15475,7 @@
     </row>
     <row r="518" spans="1:6">
       <c r="A518" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B518" s="19" t="s">
         <v>104</v>
@@ -15478,7 +15495,7 @@
     </row>
     <row r="519" spans="1:6">
       <c r="A519" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B519" s="19" t="s">
         <v>121</v>
@@ -15498,7 +15515,7 @@
     </row>
     <row r="520" spans="1:6">
       <c r="A520" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B520" s="19" t="s">
         <v>134</v>
@@ -15518,7 +15535,7 @@
     </row>
     <row r="521" spans="1:6">
       <c r="A521" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B521" s="19" t="s">
         <v>120</v>
@@ -15538,7 +15555,7 @@
     </row>
     <row r="522" spans="1:6">
       <c r="A522" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B522" s="19" t="s">
         <v>117</v>
@@ -15558,7 +15575,7 @@
     </row>
     <row r="523" spans="1:6">
       <c r="A523" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B523" s="19" t="s">
         <v>115</v>
@@ -15578,7 +15595,7 @@
     </row>
     <row r="524" spans="1:6">
       <c r="A524" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B524" s="19" t="s">
         <v>170</v>
@@ -15598,7 +15615,7 @@
     </row>
     <row r="525" spans="1:6">
       <c r="A525" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B525" s="19" t="s">
         <v>103</v>
@@ -15618,7 +15635,7 @@
     </row>
     <row r="526" spans="1:6">
       <c r="A526" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B526" s="19" t="s">
         <v>102</v>
@@ -15638,7 +15655,7 @@
     </row>
     <row r="527" spans="1:6">
       <c r="A527" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B527" s="19" t="s">
         <v>109</v>
@@ -15658,7 +15675,7 @@
     </row>
     <row r="528" spans="1:6">
       <c r="A528" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B528" s="19" t="s">
         <v>51</v>
@@ -15678,7 +15695,7 @@
     </row>
     <row r="529" spans="1:6">
       <c r="A529" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B529" s="19" t="s">
         <v>59</v>
@@ -15698,10 +15715,10 @@
     </row>
     <row r="530" spans="1:6">
       <c r="A530" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B530" s="19" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C530" s="19">
         <v>1980</v>
@@ -15718,7 +15735,7 @@
     </row>
     <row r="531" spans="1:6">
       <c r="A531" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B531" s="19" t="s">
         <v>130</v>
@@ -15738,7 +15755,7 @@
     </row>
     <row r="532" spans="1:6">
       <c r="A532" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B532" s="19" t="s">
         <v>194</v>
@@ -15758,7 +15775,7 @@
     </row>
     <row r="533" spans="1:6">
       <c r="A533" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B533" s="19" t="s">
         <v>69</v>
@@ -15778,7 +15795,7 @@
     </row>
     <row r="534" spans="1:6">
       <c r="A534" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B534" s="19" t="s">
         <v>122</v>
@@ -15798,7 +15815,7 @@
     </row>
     <row r="535" spans="1:6">
       <c r="A535" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B535" s="19" t="s">
         <v>138</v>
@@ -15818,7 +15835,7 @@
     </row>
     <row r="536" spans="1:6">
       <c r="A536" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B536" s="19" t="s">
         <v>38</v>
@@ -15838,7 +15855,7 @@
     </row>
     <row r="537" spans="1:6">
       <c r="A537" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B537" s="19" t="s">
         <v>177</v>
@@ -15858,7 +15875,7 @@
     </row>
     <row r="538" spans="1:6">
       <c r="A538" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B538" s="19" t="s">
         <v>217</v>
@@ -15878,7 +15895,7 @@
     </row>
     <row r="539" spans="1:6">
       <c r="A539" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B539" s="19" t="s">
         <v>135</v>
@@ -15898,7 +15915,7 @@
     </row>
     <row r="540" spans="1:6">
       <c r="A540" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B540" s="19" t="s">
         <v>65</v>
@@ -15918,7 +15935,7 @@
     </row>
     <row r="541" spans="1:6">
       <c r="A541" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B541" s="19" t="s">
         <v>67</v>
@@ -15938,7 +15955,7 @@
     </row>
     <row r="542" spans="1:6">
       <c r="A542" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B542" s="19" t="s">
         <v>131</v>
@@ -15958,10 +15975,10 @@
     </row>
     <row r="543" spans="1:6">
       <c r="A543" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B543" s="19" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C543" s="19">
         <v>3166</v>
@@ -15978,10 +15995,10 @@
     </row>
     <row r="544" spans="1:6">
       <c r="A544" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B544" s="19" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C544" s="19">
         <v>560</v>
@@ -15998,10 +16015,10 @@
     </row>
     <row r="545" spans="1:6">
       <c r="A545" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B545" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C545" s="19">
         <v>2190</v>
@@ -16018,10 +16035,10 @@
     </row>
     <row r="546" spans="1:6">
       <c r="A546" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B546" s="19" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C546" s="19">
         <v>3568</v>
@@ -16038,7 +16055,7 @@
     </row>
     <row r="547" spans="1:6">
       <c r="A547" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B547" s="19" t="s">
         <v>73</v>
@@ -16058,7 +16075,7 @@
     </row>
     <row r="548" spans="1:6">
       <c r="A548" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B548" s="19" t="s">
         <v>90</v>
@@ -16078,7 +16095,7 @@
     </row>
     <row r="549" spans="1:6">
       <c r="A549" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B549" s="19" t="s">
         <v>195</v>
@@ -16098,7 +16115,7 @@
     </row>
     <row r="550" spans="1:6">
       <c r="A550" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B550" s="19" t="s">
         <v>196</v>
@@ -16118,7 +16135,7 @@
     </row>
     <row r="551" spans="1:6">
       <c r="A551" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B551" s="19" t="s">
         <v>197</v>
@@ -16138,7 +16155,7 @@
     </row>
     <row r="552" spans="1:6">
       <c r="A552" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B552" s="19" t="s">
         <v>205</v>
@@ -16158,7 +16175,7 @@
     </row>
     <row r="553" spans="1:6">
       <c r="A553" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B553" s="19" t="s">
         <v>62</v>
@@ -16178,7 +16195,7 @@
     </row>
     <row r="554" spans="1:6">
       <c r="A554" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B554" s="19" t="s">
         <v>86</v>
@@ -16198,7 +16215,7 @@
     </row>
     <row r="555" spans="1:6">
       <c r="A555" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B555" s="19" t="s">
         <v>162</v>
@@ -16218,7 +16235,7 @@
     </row>
     <row r="556" spans="1:6">
       <c r="A556" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B556" s="19" t="s">
         <v>160</v>
@@ -16238,7 +16255,7 @@
     </row>
     <row r="557" spans="1:6">
       <c r="A557" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B557" s="19" t="s">
         <v>158</v>
@@ -16258,7 +16275,7 @@
     </row>
     <row r="558" spans="1:6">
       <c r="A558" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B558" s="19" t="s">
         <v>156</v>
@@ -16278,7 +16295,7 @@
     </row>
     <row r="559" spans="1:6">
       <c r="A559" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B559" s="19" t="s">
         <v>144</v>
@@ -16298,7 +16315,7 @@
     </row>
     <row r="560" spans="1:6">
       <c r="A560" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B560" s="19" t="s">
         <v>166</v>
@@ -16318,7 +16335,7 @@
     </row>
     <row r="561" spans="1:6">
       <c r="A561" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B561" s="19" t="s">
         <v>214</v>
@@ -16338,7 +16355,7 @@
     </row>
     <row r="562" spans="1:6">
       <c r="A562" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B562" s="19" t="s">
         <v>192</v>
@@ -16358,7 +16375,7 @@
     </row>
     <row r="563" spans="1:6">
       <c r="A563" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B563" s="19" t="s">
         <v>211</v>
@@ -16378,7 +16395,7 @@
     </row>
     <row r="564" spans="1:6">
       <c r="A564" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B564" s="19" t="s">
         <v>190</v>
@@ -16398,7 +16415,7 @@
     </row>
     <row r="565" spans="1:6">
       <c r="A565" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B565" s="19" t="s">
         <v>168</v>
@@ -16418,7 +16435,7 @@
     </row>
     <row r="566" spans="1:6">
       <c r="A566" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B566" s="19" t="s">
         <v>107</v>
@@ -16438,7 +16455,7 @@
     </row>
     <row r="567" spans="1:6">
       <c r="A567" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B567" s="19" t="s">
         <v>163</v>
@@ -16458,7 +16475,7 @@
     </row>
     <row r="568" spans="1:6">
       <c r="A568" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B568" s="19" t="s">
         <v>161</v>
@@ -16478,7 +16495,7 @@
     </row>
     <row r="569" spans="1:6">
       <c r="A569" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B569" s="19" t="s">
         <v>159</v>
@@ -16498,7 +16515,7 @@
     </row>
     <row r="570" spans="1:6">
       <c r="A570" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B570" s="19" t="s">
         <v>157</v>
@@ -16518,7 +16535,7 @@
     </row>
     <row r="571" spans="1:6">
       <c r="A571" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B571" s="19" t="s">
         <v>193</v>
@@ -16538,7 +16555,7 @@
     </row>
     <row r="572" spans="1:6">
       <c r="A572" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B572" s="19" t="s">
         <v>202</v>
@@ -16558,7 +16575,7 @@
     </row>
     <row r="573" spans="1:6">
       <c r="A573" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B573" s="19" t="s">
         <v>129</v>
@@ -16578,7 +16595,7 @@
     </row>
     <row r="574" spans="1:6">
       <c r="A574" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B574" s="19" t="s">
         <v>63</v>
@@ -16598,7 +16615,7 @@
     </row>
     <row r="575" spans="1:6">
       <c r="A575" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B575" s="19" t="s">
         <v>87</v>
@@ -16618,7 +16635,7 @@
     </row>
     <row r="576" spans="1:6">
       <c r="A576" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B576" s="19" t="s">
         <v>74</v>
@@ -16638,7 +16655,7 @@
     </row>
     <row r="577" spans="1:6">
       <c r="A577" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B577" s="19" t="s">
         <v>88</v>
@@ -16658,7 +16675,7 @@
     </row>
     <row r="578" spans="1:6">
       <c r="A578" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B578" s="19" t="s">
         <v>89</v>
@@ -16678,7 +16695,7 @@
     </row>
     <row r="579" spans="1:6">
       <c r="A579" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B579" s="19" t="s">
         <v>93</v>
@@ -16698,7 +16715,7 @@
     </row>
     <row r="580" spans="1:6">
       <c r="A580" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B580" s="19" t="s">
         <v>100</v>
@@ -16718,7 +16735,7 @@
     </row>
     <row r="581" spans="1:6">
       <c r="A581" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B581" s="19" t="s">
         <v>53</v>
@@ -16780,12 +16797,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21">
       <c r="A1" s="13" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -16796,7 +16813,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="29" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -16804,7 +16821,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="33" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -16839,10 +16856,10 @@
         <v>122</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="E9" s="14"/>
     </row>
@@ -16851,10 +16868,10 @@
         <v>138</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E10" s="14"/>
     </row>
@@ -16863,10 +16880,10 @@
         <v>38</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E11" s="14"/>
     </row>
@@ -16875,10 +16892,10 @@
         <v>177</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="E12" s="14"/>
     </row>
@@ -16887,10 +16904,10 @@
         <v>217</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E13" s="14"/>
     </row>
@@ -16899,10 +16916,10 @@
         <v>135</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E14" s="14"/>
     </row>
@@ -16911,10 +16928,10 @@
         <v>65</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="E15" s="14"/>
     </row>
@@ -16923,10 +16940,10 @@
         <v>67</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="E16" s="14"/>
     </row>
@@ -16935,10 +16952,10 @@
         <v>73</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -16946,10 +16963,10 @@
         <v>90</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="E18" s="14"/>
     </row>
@@ -16958,10 +16975,10 @@
         <v>195</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -16969,10 +16986,10 @@
         <v>196</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -16980,10 +16997,10 @@
         <v>197</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -16991,10 +17008,10 @@
         <v>205</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -17002,10 +17019,10 @@
         <v>62</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -17013,10 +17030,10 @@
         <v>86</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -17024,10 +17041,10 @@
         <v>162</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -17035,10 +17052,10 @@
         <v>160</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -17046,10 +17063,10 @@
         <v>158</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -17057,10 +17074,10 @@
         <v>156</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -17068,10 +17085,10 @@
         <v>144</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -17079,10 +17096,10 @@
         <v>166</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -17090,10 +17107,10 @@
         <v>214</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -17101,10 +17118,10 @@
         <v>192</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -17112,10 +17129,10 @@
         <v>211</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -17123,10 +17140,10 @@
         <v>190</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -17134,10 +17151,10 @@
         <v>168</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -17145,10 +17162,10 @@
         <v>107</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -17156,10 +17173,10 @@
         <v>163</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -17167,10 +17184,10 @@
         <v>161</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -17178,10 +17195,10 @@
         <v>159</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -17189,10 +17206,10 @@
         <v>157</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -17200,10 +17217,10 @@
         <v>193</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -17211,10 +17228,10 @@
         <v>202</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -17222,10 +17239,10 @@
         <v>129</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -17233,10 +17250,10 @@
         <v>63</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -17244,10 +17261,10 @@
         <v>87</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -17255,10 +17272,10 @@
         <v>74</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -17266,10 +17283,10 @@
         <v>88</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -17277,10 +17294,10 @@
         <v>89</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -17288,10 +17305,10 @@
         <v>93</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -17299,10 +17316,10 @@
         <v>100</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -17464,7 +17481,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00A795-F924-4957-BF24-7CBCF1582012}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -17480,12 +17497,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -17495,14 +17512,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="29" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="33" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -17531,420 +17548,497 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>73</v>
+      <c r="A9" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>283</v>
+        <v>411</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>90</v>
+      <c r="A10" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>283</v>
+        <v>411</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
-        <v>195</v>
+      <c r="A11" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>287</v>
+        <v>411</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>196</v>
+      <c r="A12" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>287</v>
+        <v>411</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6" t="s">
-        <v>197</v>
+      <c r="A13" s="17" t="s">
+        <v>217</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>289</v>
+        <v>411</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
-        <v>205</v>
+      <c r="A14" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>290</v>
+        <v>411</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
-        <v>62</v>
+      <c r="A15" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>274</v>
+        <v>411</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="6" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="6" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>214</v>
+        <v>86</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="17" t="s">
+      <c r="B31" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C26" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C27" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="B32" s="6" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C33" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>299</v>
+      <c r="A34" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="C34" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="D36" s="6"/>
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C38" t="s">
-        <v>381</v>
+        <v>157</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C39" t="s">
-        <v>382</v>
+      <c r="A39" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="C40" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C41" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="29"/>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="32"/>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="B48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C48" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="30"/>
       <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2">
+      <c r="A50" s="29"/>
       <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:2">
+      <c r="A51" s="32"/>
       <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="30"/>
       <c r="B53" s="6"/>
     </row>
+    <row r="54" spans="1:2">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" s="6"/>
+    </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="31"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="14"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="14"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="14"/>
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="30"/>
+      <c r="B60" s="6"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="31"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="14"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="14"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -17974,12 +18068,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -17987,12 +18081,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="29" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="33" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -18018,13 +18112,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -18032,10 +18126,10 @@
         <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -18043,10 +18137,10 @@
         <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -18095,12 +18189,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -18109,14 +18203,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="29" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="33" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -18148,10 +18242,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -18159,10 +18253,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -18217,12 +18311,12 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" ht="21">
       <c r="A1" s="13" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="11" customFormat="1" ht="21">
       <c r="A2" s="13" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -18231,14 +18325,14 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="29" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="33" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -18270,7 +18364,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>33</v>
@@ -18281,10 +18375,10 @@
         <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -18292,10 +18386,10 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -18314,10 +18408,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -18325,7 +18419,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -18336,10 +18430,10 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="C15" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -18358,10 +18452,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C17" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:3">

--- a/Data/Commodore 64 Breadbin/250407/Data C64 Breadbin 250407.xlsx
+++ b/Data/Commodore 64 Breadbin/250407/Data C64 Breadbin 250407.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 64 Breadbin\250407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C426C4FD-0319-4ABB-B53D-F8AD5A7A53D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D09776-F9FE-498D-AC4B-9382C2F61B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board schematics" sheetId="5" r:id="rId1"/>
@@ -1900,7 +1900,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -2240,9 +2240,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
